--- a/ig/sd-nouveaux-exemples/ValueSet-eclaire-study-phase-vs.xlsx
+++ b/ig/sd-nouveaux-exemples/ValueSet-eclaire-study-phase-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T11:45:49+00:00</t>
+    <t>2023-10-17T18:26:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-nouveaux-exemples/ValueSet-eclaire-study-phase-vs.xlsx
+++ b/ig/sd-nouveaux-exemples/ValueSet-eclaire-study-phase-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T18:26:26+00:00</t>
+    <t>2023-10-18T17:01:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-nouveaux-exemples/ValueSet-eclaire-study-phase-vs.xlsx
+++ b/ig/sd-nouveaux-exemples/ValueSet-eclaire-study-phase-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T17:01:58+00:00</t>
+    <t>2023-10-19T13:24:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-nouveaux-exemples/ValueSet-eclaire-study-phase-vs.xlsx
+++ b/ig/sd-nouveaux-exemples/ValueSet-eclaire-study-phase-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T13:24:15+00:00</t>
+    <t>2023-10-19T14:31:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-nouveaux-exemples/ValueSet-eclaire-study-phase-vs.xlsx
+++ b/ig/sd-nouveaux-exemples/ValueSet-eclaire-study-phase-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T14:31:02+00:00</t>
+    <t>2023-10-19T14:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-nouveaux-exemples/ValueSet-eclaire-study-phase-vs.xlsx
+++ b/ig/sd-nouveaux-exemples/ValueSet-eclaire-study-phase-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T14:56:07+00:00</t>
+    <t>2023-10-19T15:21:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
